--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 10,07</t>
+          <t>-8,97; 9,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 21,33</t>
+          <t>3,25; 21,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 17,67</t>
+          <t>-0,62; 17,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 24,38</t>
+          <t>2,03; 24,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 78,52</t>
+          <t>-42,0; 79,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 316,17</t>
+          <t>21,72; 365,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 387,63</t>
+          <t>-10,81; 346,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 128,4</t>
+          <t>6,21; 126,65</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,87</t>
+          <t>1,83; 10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,08</t>
+          <t>3,78; 12,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,91</t>
+          <t>5,15; 12,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,13</t>
+          <t>7,28; 18,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 83,71</t>
+          <t>11,52; 84,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 114,86</t>
+          <t>26,84; 124,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 205,36</t>
+          <t>49,01; 190,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 98,4</t>
+          <t>30,73; 96,35</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,27</t>
+          <t>5,42; 12,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,98</t>
+          <t>4,53; 11,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,85</t>
+          <t>3,1; 8,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 24,05</t>
+          <t>16,14; 24,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,68; 103,08</t>
+          <t>35,81; 110,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,07; 118,29</t>
+          <t>38,53; 119,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,01; 127,12</t>
+          <t>30,92; 126,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,17; 152,0</t>
+          <t>77,21; 149,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,2</t>
+          <t>1,38; 10,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,84</t>
+          <t>9,58; 16,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,86</t>
+          <t>0,7; 6,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,9</t>
+          <t>16,16; 43,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 56,96</t>
+          <t>6,35; 55,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>100,06; 277,55</t>
+          <t>103,03; 291,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 108,73</t>
+          <t>7,35; 105,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 208,96</t>
+          <t>66,95; 204,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,39</t>
+          <t>3,64; 10,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,15</t>
+          <t>8,97; 15,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,57</t>
+          <t>4,59; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,57</t>
+          <t>10,94; 19,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 66,36</t>
+          <t>18,58; 68,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,17; 197,04</t>
+          <t>85,24; 197,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,71; 122,49</t>
+          <t>39,06; 128,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,34; 95,69</t>
+          <t>43,17; 90,88</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>4,81; 8,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,85</t>
+          <t>8,63; 12,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,97</t>
+          <t>4,89; 8,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,49</t>
+          <t>15,59; 24,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>27,46; 55,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,66; 132,83</t>
+          <t>82,43; 133,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,68; 100,78</t>
+          <t>51,36; 102,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,03; 116,41</t>
+          <t>67,76; 112,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 9,84</t>
+          <t>-9,81; 10,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 21,92</t>
+          <t>2,74; 22,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 17,2</t>
+          <t>-1,04; 17,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 79,56</t>
+          <t>-41,7; 78,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 365,25</t>
+          <t>14,0; 300,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 346,52</t>
+          <t>-21,06; 364,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,71</t>
+          <t>1,52; 10,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 12,53</t>
+          <t>3,19; 12,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,95</t>
+          <t>5,61; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 84,31</t>
+          <t>10,06; 82,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,84; 124,02</t>
+          <t>22,0; 114,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,01; 190,26</t>
+          <t>52,16; 212,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,75</t>
+          <t>4,82; 12,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,09</t>
+          <t>4,76; 11,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,8</t>
+          <t>2,94; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,81; 110,55</t>
+          <t>33,17; 104,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,53; 119,01</t>
+          <t>37,22; 120,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 126,91</t>
+          <t>29,71; 121,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,15</t>
+          <t>1,24; 10,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,88</t>
+          <t>9,37; 16,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,73</t>
+          <t>0,81; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 55,69</t>
+          <t>5,3; 60,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>103,03; 291,47</t>
+          <t>103,63; 286,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 105,49</t>
+          <t>8,19; 112,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 10,7</t>
+          <t>3,22; 10,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,25</t>
+          <t>8,73; 15,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,98</t>
+          <t>4,44; 10,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,58; 68,24</t>
+          <t>16,31; 65,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,24; 197,86</t>
+          <t>79,81; 198,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,06; 128,17</t>
+          <t>37,94; 125,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,74</t>
+          <t>4,89; 8,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,07</t>
+          <t>8,64; 12,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,1</t>
+          <t>4,88; 8,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 55,47</t>
+          <t>27,87; 56,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,43; 133,27</t>
+          <t>80,68; 131,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,36; 102,5</t>
+          <t>52,3; 102,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 10,09</t>
+          <t>-9,83; 10,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 22,28</t>
+          <t>2,51; 21,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 17,59</t>
+          <t>0,19; 17,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 24,39</t>
+          <t>2,73; 24,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 78,32</t>
+          <t>-40,73; 78,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 300,24</t>
+          <t>16,4; 316,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 364,52</t>
+          <t>-1,61; 387,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 126,65</t>
+          <t>8,47; 128,4</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 10,52</t>
+          <t>1,9; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,3</t>
+          <t>3,65; 12,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 13,58</t>
+          <t>4,98; 12,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 18,8</t>
+          <t>8,11; 19,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 82,42</t>
+          <t>10,47; 83,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,0; 114,14</t>
+          <t>24,7; 114,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,16; 212,16</t>
+          <t>51,2; 205,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 96,35</t>
+          <t>33,93; 98,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,29</t>
+          <t>5,35; 12,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,49</t>
+          <t>4,62; 10,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,68</t>
+          <t>3,24; 8,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,04</t>
+          <t>15,61; 24,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,17; 104,33</t>
+          <t>34,68; 103,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,22; 120,05</t>
+          <t>39,07; 118,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,71; 121,53</t>
+          <t>33,01; 127,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,21; 149,68</t>
+          <t>75,17; 152,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,63</t>
+          <t>1,11; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 16,64</t>
+          <t>9,44; 16,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,86</t>
+          <t>0,6; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 43,72</t>
+          <t>16,55; 45,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 60,35</t>
+          <t>4,89; 56,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>103,63; 286,82</t>
+          <t>100,06; 277,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 112,22</t>
+          <t>5,02; 108,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,95; 204,33</t>
+          <t>67,0; 208,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 10,39</t>
+          <t>3,41; 10,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,47</t>
+          <t>8,89; 15,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,8</t>
+          <t>4,38; 10,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 19,19</t>
+          <t>11,21; 19,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 65,52</t>
+          <t>17,99; 66,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,81; 198,49</t>
+          <t>83,17; 197,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,94; 125,99</t>
+          <t>35,71; 122,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,17; 90,88</t>
+          <t>44,34; 95,69</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,9</t>
+          <t>5,1; 8,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,07</t>
+          <t>8,63; 11,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,32</t>
+          <t>4,78; 7,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 24,32</t>
+          <t>15,63; 24,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,87; 56,53</t>
+          <t>28,75; 57,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,68; 131,54</t>
+          <t>81,66; 132,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,3; 102,51</t>
+          <t>51,68; 100,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,76; 112,79</t>
+          <t>69,03; 116,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>117,93%</t>
+          <t>108,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>58,59%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 10,07</t>
+          <t>1,79; 10,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 21,33</t>
+          <t>9,25; 17,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 17,67</t>
+          <t>5,42; 13,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 24,38</t>
+          <t>5,37; 17,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 78,52</t>
+          <t>9,35; 72,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 316,17</t>
+          <t>67,62; 162,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 387,63</t>
+          <t>47,87; 162,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 128,4</t>
+          <t>23,9; 90,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,71</t>
+          <t>23,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>112,41%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>153,55%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,87</t>
+          <t>7,71; 14,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,08</t>
+          <t>7,1; 13,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,91</t>
+          <t>5,44; 11,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,13</t>
+          <t>18,25; 31,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 83,71</t>
+          <t>46,38; 117,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 114,86</t>
+          <t>54,98; 138,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 205,36</t>
+          <t>52,03; 145,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 98,4</t>
+          <t>91,72; 387,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>15,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,73</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>64,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>205,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>73,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>104,7%</t>
+          <t>130,52%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,27</t>
+          <t>8,63; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,98</t>
+          <t>12,08; 19,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,85</t>
+          <t>2,96; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 24,05</t>
+          <t>14,88; 55,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,68; 103,08</t>
+          <t>36,57; 95,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,07; 118,29</t>
+          <t>125,98; 311,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,01; 127,12</t>
+          <t>29,06; 138,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,17; 152,0</t>
+          <t>64,08; 272,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>14,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>18,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>176,22%</t>
+          <t>155,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>103,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>109,19%</t>
+          <t>79,07%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,2</t>
+          <t>6,73; 13,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,84</t>
+          <t>11,65; 18,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,86</t>
+          <t>7,5; 14,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,9</t>
+          <t>12,72; 32,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 56,96</t>
+          <t>32,11; 82,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>100,06; 277,55</t>
+          <t>102,44; 224,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 108,73</t>
+          <t>59,11; 151,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 208,96</t>
+          <t>51,17; 144,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>132,84%</t>
+          <t>130,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>109,71%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,39</t>
+          <t>8,42; 12,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,15</t>
+          <t>11,67; 15,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,57</t>
+          <t>7,18; 10,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,57</t>
+          <t>16,89; 33,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 66,36</t>
+          <t>45,86; 73,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,17; 197,04</t>
+          <t>104,6; 158,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,71; 122,49</t>
+          <t>69,92; 122,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,34; 95,69</t>
+          <t>79,46; 196,81</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,32</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,56</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>42,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>105,49%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>75,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>85,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 8,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 11,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 7,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,63; 24,49</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>28,75; 57,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>81,66; 132,83</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>51,68; 100,78</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>69,03; 116,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/DC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/DC-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,01</t>
+          <t>1,68; 9,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,49</t>
+          <t>9,35; 17,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,23</t>
+          <t>5,44; 12,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 17,88</t>
+          <t>5,51; 18,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 72,27</t>
+          <t>9,65; 71,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,62; 162,78</t>
+          <t>61,49; 169,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,87; 162,22</t>
+          <t>47,35; 165,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 90,61</t>
+          <t>24,89; 91,02</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,99</t>
+          <t>7,55; 14,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,84</t>
+          <t>7,07; 13,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,52</t>
+          <t>5,03; 11,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,25; 31,75</t>
+          <t>18,28; 32,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,38; 117,39</t>
+          <t>45,64; 115,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,98; 138,03</t>
+          <t>53,5; 139,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,03; 145,94</t>
+          <t>49,88; 152,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,72; 387,67</t>
+          <t>91,04; 387,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 17,96</t>
+          <t>8,77; 18,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 19,55</t>
+          <t>11,92; 19,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,66</t>
+          <t>3,25; 9,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 55,59</t>
+          <t>15,09; 52,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,57; 95,36</t>
+          <t>37,06; 95,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>125,98; 311,76</t>
+          <t>122,11; 323,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 138,6</t>
+          <t>31,33; 135,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,08; 272,64</t>
+          <t>63,81; 262,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,89</t>
+          <t>6,47; 14,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 18,08</t>
+          <t>11,49; 18,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 14,39</t>
+          <t>7,62; 14,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 32,14</t>
+          <t>12,41; 29,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,11; 82,23</t>
+          <t>31,65; 81,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>102,44; 224,79</t>
+          <t>100,06; 217,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,11; 151,26</t>
+          <t>60,76; 155,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,17; 144,27</t>
+          <t>49,96; 132,06</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,36</t>
+          <t>8,35; 12,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 15,2</t>
+          <t>11,66; 15,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,59</t>
+          <t>7,15; 10,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 33,62</t>
+          <t>16,76; 32,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,86; 73,8</t>
+          <t>45,37; 75,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>104,6; 158,77</t>
+          <t>103,9; 159,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,92; 122,32</t>
+          <t>70,34; 121,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,46; 196,81</t>
+          <t>76,87; 186,06</t>
         </is>
       </c>
     </row>
